--- a/df.xlsx
+++ b/df.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanmay.ghosh\Desktop\Problem space\appliedmaterialscasestudytableau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myplace.bms.com/personal/tanmay_ghosh_bms_com/Documents/Desktop/New folder/appliedmaterialscasestudytableau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D00F6A-77A8-4B72-BCDF-EB2F5AF84C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{77D00F6A-77A8-4B72-BCDF-EB2F5AF84C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25B6C4C2-1347-493F-9C0A-80EE64CB83BC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -486,14 +499,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,7 +540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -557,7 +572,7 @@
         <v>94.145099999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -589,7 +604,7 @@
         <v>94.151300000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -617,8 +632,11 @@
       <c r="I4">
         <v>1.87313</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J4">
+        <v>93.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -650,7 +668,7 @@
         <v>94.034499999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -682,7 +700,7 @@
         <v>93.940799999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -714,7 +732,7 @@
         <v>93.302700000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -746,7 +764,7 @@
         <v>93.464100000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -778,7 +796,7 @@
         <v>93.544499999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -810,7 +828,7 @@
         <v>93.091700000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -838,8 +856,11 @@
       <c r="I11">
         <v>1.82786</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J11">
+        <v>93.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -851,6 +872,9 @@
       </c>
       <c r="D12">
         <v>1.2565200000000001</v>
+      </c>
+      <c r="E12">
+        <v>142.87219999999999</v>
       </c>
       <c r="F12">
         <v>1.04952</v>
